--- a/input.xlsx
+++ b/input.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7815"/>
+    <workbookView windowWidth="19200" windowHeight="8150"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,12 +14,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="2">
   <si>
     <t>Website Url</t>
   </si>
   <si>
-    <t>example.com</t>
+    <t>https://google.com</t>
   </si>
 </sst>
 </file>
@@ -28,9 +28,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_-&quot;Rp&quot;* #,##0.00_-;\-&quot;Rp&quot;* #,##0.00_-;_-&quot;Rp&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="178" formatCode="_-&quot;Rp&quot;* #,##0_-;\-&quot;Rp&quot;* #,##0_-;_-&quot;Rp&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="179" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_-&quot;Rp&quot;* #,##0_-;\-&quot;Rp&quot;* #,##0_-;_-&quot;Rp&quot;* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -38,6 +38,14 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -48,9 +56,23 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -64,47 +86,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -125,6 +132,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -150,7 +164,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -164,14 +178,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -179,14 +186,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -201,187 +201,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -426,16 +426,27 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -451,21 +462,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -512,170 +508,174 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="7" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1" readingOrder="1"/>
     </xf>
   </cellXfs>
@@ -1000,238 +1000,247 @@
   <dimension ref="A1:A73"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="12.5714285714286" customWidth="1"/>
+    <col min="1" max="1" width="12.5727272727273" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" spans="1:1">
+    <row r="1" ht="15.25" spans="1:1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" ht="29.75" spans="1:1">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
-      <c r="A3" s="2"/>
-    </row>
-    <row r="4" spans="1:1">
-      <c r="A4" s="2"/>
-    </row>
-    <row r="5" spans="1:1">
+    <row r="3" ht="29.75" spans="1:1">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" ht="29.75" spans="1:1">
+      <c r="A4" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" ht="15.25" spans="1:1">
       <c r="A5" s="2"/>
     </row>
-    <row r="6" spans="1:1">
+    <row r="6" ht="15.25" spans="1:1">
       <c r="A6" s="2"/>
     </row>
-    <row r="7" spans="1:1">
+    <row r="7" ht="15.25" spans="1:1">
       <c r="A7" s="2"/>
     </row>
-    <row r="8" spans="1:1">
+    <row r="8" ht="15.25" spans="1:1">
       <c r="A8" s="2"/>
     </row>
-    <row r="9" spans="1:1">
+    <row r="9" ht="15.25" spans="1:1">
       <c r="A9" s="2"/>
     </row>
-    <row r="10" spans="1:1">
+    <row r="10" ht="15.25" spans="1:1">
       <c r="A10" s="2"/>
     </row>
-    <row r="11" spans="1:1">
+    <row r="11" ht="15.25" spans="1:1">
       <c r="A11" s="2"/>
     </row>
-    <row r="12" spans="1:1">
+    <row r="12" ht="15.25" spans="1:1">
       <c r="A12" s="2"/>
     </row>
-    <row r="13" spans="1:1">
+    <row r="13" ht="15.25" spans="1:1">
       <c r="A13" s="2"/>
     </row>
-    <row r="14" spans="1:1">
+    <row r="14" ht="15.25" spans="1:1">
       <c r="A14" s="2"/>
     </row>
-    <row r="15" spans="1:1">
+    <row r="15" ht="15.25" spans="1:1">
       <c r="A15" s="2"/>
     </row>
-    <row r="16" spans="1:1">
+    <row r="16" ht="15.25" spans="1:1">
       <c r="A16" s="2"/>
     </row>
-    <row r="17" spans="1:1">
+    <row r="17" ht="15.25" spans="1:1">
       <c r="A17" s="2"/>
     </row>
-    <row r="18" spans="1:1">
+    <row r="18" ht="15.25" spans="1:1">
       <c r="A18" s="2"/>
     </row>
-    <row r="19" spans="1:1">
+    <row r="19" ht="15.25" spans="1:1">
       <c r="A19" s="2"/>
     </row>
-    <row r="20" spans="1:1">
+    <row r="20" ht="15.25" spans="1:1">
       <c r="A20" s="2"/>
     </row>
-    <row r="21" spans="1:1">
+    <row r="21" ht="15.25" spans="1:1">
       <c r="A21" s="2"/>
     </row>
-    <row r="22" spans="1:1">
+    <row r="22" ht="15.25" spans="1:1">
       <c r="A22" s="2"/>
     </row>
-    <row r="23" spans="1:1">
+    <row r="23" ht="15.25" spans="1:1">
       <c r="A23" s="2"/>
     </row>
-    <row r="24" spans="1:1">
+    <row r="24" ht="15.25" spans="1:1">
       <c r="A24" s="2"/>
     </row>
-    <row r="25" spans="1:1">
+    <row r="25" ht="15.25" spans="1:1">
       <c r="A25" s="2"/>
     </row>
-    <row r="26" spans="1:1">
+    <row r="26" ht="15.25" spans="1:1">
       <c r="A26" s="2"/>
     </row>
-    <row r="27" spans="1:1">
+    <row r="27" ht="15.25" spans="1:1">
       <c r="A27" s="2"/>
     </row>
-    <row r="28" spans="1:1">
+    <row r="28" ht="15.25" spans="1:1">
       <c r="A28" s="2"/>
     </row>
-    <row r="29" spans="1:1">
+    <row r="29" ht="15.25" spans="1:1">
       <c r="A29" s="2"/>
     </row>
-    <row r="30" spans="1:1">
+    <row r="30" ht="15.25" spans="1:1">
       <c r="A30" s="2"/>
     </row>
-    <row r="31" spans="1:1">
+    <row r="31" ht="15.25" spans="1:1">
       <c r="A31" s="2"/>
     </row>
-    <row r="32" spans="1:1">
+    <row r="32" ht="15.25" spans="1:1">
       <c r="A32" s="2"/>
     </row>
-    <row r="33" spans="1:1">
+    <row r="33" ht="15.25" spans="1:1">
       <c r="A33" s="2"/>
     </row>
-    <row r="34" spans="1:1">
+    <row r="34" ht="15.25" spans="1:1">
       <c r="A34" s="2"/>
     </row>
-    <row r="35" spans="1:1">
+    <row r="35" ht="15.25" spans="1:1">
       <c r="A35" s="2"/>
     </row>
-    <row r="36" spans="1:1">
+    <row r="36" ht="15.25" spans="1:1">
       <c r="A36" s="2"/>
     </row>
-    <row r="37" spans="1:1">
+    <row r="37" ht="15.25" spans="1:1">
       <c r="A37" s="2"/>
     </row>
-    <row r="38" spans="1:1">
+    <row r="38" ht="15.25" spans="1:1">
       <c r="A38" s="2"/>
     </row>
-    <row r="39" spans="1:1">
+    <row r="39" ht="15.25" spans="1:1">
       <c r="A39" s="2"/>
     </row>
-    <row r="40" spans="1:1">
+    <row r="40" ht="15.25" spans="1:1">
       <c r="A40" s="2"/>
     </row>
-    <row r="41" spans="1:1">
+    <row r="41" ht="15.25" spans="1:1">
       <c r="A41" s="2"/>
     </row>
-    <row r="42" spans="1:1">
+    <row r="42" ht="15.25" spans="1:1">
       <c r="A42" s="2"/>
     </row>
-    <row r="43" spans="1:1">
+    <row r="43" ht="15.25" spans="1:1">
       <c r="A43" s="2"/>
     </row>
-    <row r="44" spans="1:1">
+    <row r="44" ht="15.25" spans="1:1">
       <c r="A44" s="2"/>
     </row>
-    <row r="45" spans="1:1">
+    <row r="45" ht="15.25" spans="1:1">
       <c r="A45" s="2"/>
     </row>
-    <row r="46" spans="1:1">
+    <row r="46" ht="15.25" spans="1:1">
       <c r="A46" s="2"/>
     </row>
-    <row r="47" spans="1:1">
+    <row r="47" ht="15.25" spans="1:1">
       <c r="A47" s="2"/>
     </row>
-    <row r="48" spans="1:1">
+    <row r="48" ht="15.25" spans="1:1">
       <c r="A48" s="2"/>
     </row>
-    <row r="49" spans="1:1">
+    <row r="49" ht="15.25" spans="1:1">
       <c r="A49" s="2"/>
     </row>
-    <row r="50" spans="1:1">
+    <row r="50" ht="15.25" spans="1:1">
       <c r="A50" s="2"/>
     </row>
-    <row r="51" spans="1:1">
+    <row r="51" ht="15.25" spans="1:1">
       <c r="A51" s="2"/>
     </row>
-    <row r="52" spans="1:1">
+    <row r="52" ht="15.25" spans="1:1">
       <c r="A52" s="2"/>
     </row>
-    <row r="53" spans="1:1">
+    <row r="53" ht="15.25" spans="1:1">
       <c r="A53" s="2"/>
     </row>
-    <row r="54" spans="1:1">
+    <row r="54" ht="15.25" spans="1:1">
       <c r="A54" s="2"/>
     </row>
-    <row r="55" spans="1:1">
+    <row r="55" ht="15.25" spans="1:1">
       <c r="A55" s="2"/>
     </row>
-    <row r="56" spans="1:1">
+    <row r="56" ht="15.25" spans="1:1">
       <c r="A56" s="2"/>
     </row>
-    <row r="57" spans="1:1">
+    <row r="57" ht="15.25" spans="1:1">
       <c r="A57" s="2"/>
     </row>
-    <row r="58" spans="1:1">
+    <row r="58" ht="15.25" spans="1:1">
       <c r="A58" s="2"/>
     </row>
-    <row r="59" spans="1:1">
+    <row r="59" ht="15.25" spans="1:1">
       <c r="A59" s="2"/>
     </row>
-    <row r="60" spans="1:1">
+    <row r="60" ht="15.25" spans="1:1">
       <c r="A60" s="2"/>
     </row>
-    <row r="61" spans="1:1">
+    <row r="61" ht="15.25" spans="1:1">
       <c r="A61" s="2"/>
     </row>
-    <row r="62" spans="1:1">
+    <row r="62" ht="15.25" spans="1:1">
       <c r="A62" s="2"/>
     </row>
-    <row r="63" spans="1:1">
+    <row r="63" ht="15.25" spans="1:1">
       <c r="A63" s="2"/>
     </row>
-    <row r="64" spans="1:1">
+    <row r="64" ht="15.25" spans="1:1">
       <c r="A64" s="2"/>
     </row>
-    <row r="65" spans="1:1">
+    <row r="65" ht="15.25" spans="1:1">
       <c r="A65" s="2"/>
     </row>
-    <row r="66" spans="1:1">
+    <row r="66" ht="15.25" spans="1:1">
       <c r="A66" s="2"/>
     </row>
-    <row r="67" spans="1:1">
+    <row r="67" ht="15.25" spans="1:1">
       <c r="A67" s="2"/>
     </row>
-    <row r="68" spans="1:1">
+    <row r="68" ht="15.25" spans="1:1">
       <c r="A68" s="2"/>
     </row>
-    <row r="69" spans="1:1">
+    <row r="69" ht="15.25" spans="1:1">
       <c r="A69" s="2"/>
     </row>
-    <row r="70" spans="1:1">
+    <row r="70" ht="15.25" spans="1:1">
       <c r="A70" s="2"/>
     </row>
-    <row r="71" spans="1:1">
+    <row r="71" ht="15.25" spans="1:1">
       <c r="A71" s="2"/>
     </row>
-    <row r="72" spans="1:1">
+    <row r="72" ht="15.25" spans="1:1">
       <c r="A72" s="2"/>
     </row>
-    <row r="73" spans="1:1">
+    <row r="73" ht="15.25" spans="1:1">
       <c r="A73" s="2"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" display="https://google.com"/>
+    <hyperlink ref="A3" r:id="rId1" display="https://google.com"/>
+    <hyperlink ref="A4" r:id="rId1" display="https://google.com"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
 </worksheet>

--- a/input.xlsx
+++ b/input.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="2">
   <si>
     <t>Website Url</t>
   </si>
@@ -28,9 +28,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_-&quot;Rp&quot;* #,##0.00_-;\-&quot;Rp&quot;* #,##0.00_-;_-&quot;Rp&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-&quot;Rp&quot;* #,##0_-;\-&quot;Rp&quot;* #,##0_-;_-&quot;Rp&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_-&quot;Rp&quot;* #,##0_-;\-&quot;Rp&quot;* #,##0_-;_-&quot;Rp&quot;* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -72,22 +72,29 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -96,14 +103,6 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -125,20 +124,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -147,6 +132,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -163,17 +155,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -184,9 +170,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -201,43 +201,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -249,139 +375,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -425,6 +425,17 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -442,11 +453,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -499,15 +508,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -525,7 +525,7 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -546,127 +546,127 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1023,10 +1023,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" ht="29.75" spans="1:1">
-      <c r="A4" s="1" t="s">
-        <v>1</v>
-      </c>
+    <row r="4" spans="1:1">
+      <c r="A4" s="1"/>
     </row>
     <row r="5" ht="15.25" spans="1:1">
       <c r="A5" s="2"/>
@@ -1239,7 +1237,6 @@
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1" display="https://google.com"/>
     <hyperlink ref="A3" r:id="rId1" display="https://google.com"/>
-    <hyperlink ref="A4" r:id="rId1" display="https://google.com"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
